--- a/DATA_goal/Junction_Flooding_180.xlsx
+++ b/DATA_goal/Junction_Flooding_180.xlsx
@@ -450,8 +450,8 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41612.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>7.95</v>
-      </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41612.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>76.94</v>
+        <v>7.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.15</v>
+        <v>0.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41612.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.76</v>
+        <v>3.08</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.31</v>
+        <v>11.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.16</v>
+        <v>2.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41612.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.25</v>
+        <v>3.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.31</v>
+        <v>3.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.14</v>
+        <v>4.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>189.35</v>
+        <v>18.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.83</v>
+        <v>3.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.71</v>
+        <v>2.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.71</v>
+        <v>2.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.01</v>
+        <v>4.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41612.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>22.23</v>
+        <v>2.22</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.95</v>
+        <v>1.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>47.52</v>
+        <v>4.75</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>40.21</v>
+        <v>4.02</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>67.02</v>
+        <v>6.7</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.21</v>
+        <v>1.82</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24.51</v>
+        <v>2.45</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>255.78</v>
+        <v>25.58</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>48.11</v>
+        <v>4.81</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>33.07</v>
+        <v>3.31</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>32.39</v>
+        <v>3.24</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>60.39</v>
+        <v>6.04</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.83</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41612.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>35.91</v>
+        <v>3.59</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>30.45</v>
+        <v>3.05</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.11</v>
+        <v>5.31</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20.05</v>
+        <v>2.01</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>191.72</v>
+        <v>19.17</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>36.43</v>
+        <v>3.64</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>24.98</v>
+        <v>2.5</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.23</v>
+        <v>2.52</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>47.87</v>
+        <v>4.79</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41612.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC8" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AD8" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41612.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.84</v>
+        <v>1.08</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>23.07</v>
+        <v>2.31</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>30.53</v>
+        <v>3.05</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>120.73</v>
+        <v>12.07</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>23.24</v>
+        <v>2.32</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>27.01</v>
+        <v>2.7</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41612.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>48.19</v>
+        <v>4.82</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>40.34</v>
+        <v>4.03</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>65.56</v>
+        <v>6.56</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>26.87</v>
+        <v>2.69</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.82</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>258.13</v>
+        <v>25.81</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>48.6</v>
+        <v>4.86</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.13</v>
+        <v>3.31</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>32.2</v>
+        <v>3.22</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.61</v>
+        <v>2.06</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>59.23</v>
+        <v>5.92</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_180.xlsx
+++ b/DATA_goal/Junction_Flooding_180.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,15 +448,15 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -464,15 +464,15 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
@@ -652,207 +652,207 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41612.34027777778</v>
+        <v>44861.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>2.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>1.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>4.86</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>4.02</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P2" s="4" t="n">
+      <c r="T2" s="4" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.32</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41612.34722222222</v>
+        <v>44861.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>0.74</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>0.61</v>
@@ -860,834 +860,314 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41612.35416666666</v>
+        <v>44861.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.98</v>
+        <v>0.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.08</v>
+        <v>1.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.58</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.52</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.83</v>
+        <v>4.99</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.27</v>
+        <v>1.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.29</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.34</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.42</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.72</v>
+        <v>1.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41612.36111111111</v>
+        <v>44861.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <v>1.67</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="M5" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="AD5" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>4.4</v>
+        <v>4.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41612.36805555555</v>
+        <v>44861.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.22</v>
+        <v>24.02</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7</v>
+        <v>17.78</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.24</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.75</v>
+        <v>52.01</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.02</v>
+        <v>43.01</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.72</v>
+        <v>18.9</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.7</v>
+        <v>72.8</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.65</v>
+        <v>29.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.2</v>
+        <v>12.95</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.82</v>
+        <v>19.35</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.95</v>
+        <v>20.96</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.06</v>
+        <v>22.01</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.55</v>
+        <v>6.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.73</v>
+        <v>18.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.45</v>
+        <v>26.79</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.4</v>
+        <v>15.77</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.75</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.88</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>25.58</v>
+        <v>278.82</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.81</v>
+        <v>52.57</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.61</v>
+        <v>17.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.31</v>
+        <v>35.4</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.72</v>
+        <v>18.75</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.23</v>
+        <v>2.38</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.24</v>
+        <v>35.5</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.38</v>
+        <v>15.33</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.25</v>
+        <v>13.56</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.47</v>
+        <v>15.94</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.06</v>
+        <v>21.97</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.04</v>
+        <v>66.02</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.92</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41612.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41612.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41612.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41612.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41612.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>36.93</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>30.99</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>53.98</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>196.34</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>37.35</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>48.84</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.38</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_180.xlsx
+++ b/DATA_goal/Junction_Flooding_180.xlsx
@@ -448,15 +448,15 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -464,10 +464,10 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44861.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.86</v>
+        <v>48.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.03</v>
+        <v>60.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.31</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.15</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.4</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.73</v>
+        <v>267.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.03</v>
+        <v>50.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.32</v>
+        <v>53.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44861.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>72.83</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.3</v>
+        <v>23.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44861.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44861.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.15</v>
+        <v>41.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.43</v>
+        <v>34.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.47</v>
+        <v>54.65</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.16</v>
+        <v>221.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.19</v>
+        <v>41.95</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.16</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.92</v>
+        <v>49.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_180.xlsx
+++ b/DATA_goal/Junction_Flooding_180.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.92</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.56</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.15</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.26</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.88</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.31</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.4</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.06</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.34</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.26</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.39</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.2</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.44</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.25</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.83</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44861.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>4.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14</v>
+        <v>13.996</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.6</v>
+        <v>11.605</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.29</v>
+        <v>5.294</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.24</v>
+        <v>25.244</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.377</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.17</v>
+        <v>5.167</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.62</v>
+        <v>5.622</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.76</v>
+        <v>5.757</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.356</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.66</v>
+        <v>4.664</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.547</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.83</v>
+        <v>72.831</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.97</v>
+        <v>14.968</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.73</v>
+        <v>9.725</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.25</v>
+        <v>5.246</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>11.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.03</v>
+        <v>4.026</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.68</v>
+        <v>4.681</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.78</v>
+        <v>5.784</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.01</v>
+        <v>23.012</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.61</v>
+        <v>2.609</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.08</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="4">
@@ -863,40 +863,40 @@
         <v>44861.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.8</v>
+        <v>4.804</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.16</v>
+        <v>3.159</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.04</v>
+        <v>10.038</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.78</v>
+        <v>3.781</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.81</v>
+        <v>16.808</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>2.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.67</v>
+        <v>3.671</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.09</v>
+        <v>4.091</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.144</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>1.21</v>
@@ -905,61 +905,61 @@
         <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.22</v>
+        <v>5.223</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.38</v>
+        <v>3.383</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.466</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>49.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.59</v>
+        <v>10.592</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.85</v>
+        <v>6.851</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.8</v>
+        <v>3.797</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.616</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.35</v>
+        <v>3.352</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.21</v>
+        <v>4.213</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.09</v>
+        <v>15.086</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.85</v>
+        <v>1.849</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.34</v>
+        <v>4.339</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44861.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.82</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_180.xlsx
+++ b/DATA_goal/Junction_Flooding_180.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -967,103 +967,207 @@
         <v>44861.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.1</v>
+        <v>14.101</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.49</v>
+        <v>41.494</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.33</v>
+        <v>34.327</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.65</v>
+        <v>54.653</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.286</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.42</v>
+        <v>15.422</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.73</v>
+        <v>16.732</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.53</v>
+        <v>17.529</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>4.829</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.36</v>
+        <v>21.359</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.69</v>
+        <v>12.686</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.858</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.57</v>
+        <v>221.567</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.95</v>
+        <v>41.947</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>28.16</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.01</v>
+        <v>15.006</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.02</v>
+        <v>27.017</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.81</v>
+        <v>12.806</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.52</v>
+        <v>17.519</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.23</v>
+        <v>49.231</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.81</v>
+        <v>7.809</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>17.354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44861.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>278.82</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>17.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_180.xlsx
+++ b/DATA_goal/Junction_Flooding_180.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -967,207 +967,103 @@
         <v>44861.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.217</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.101</v>
+        <v>14.1</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.494</v>
+        <v>41.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.327</v>
+        <v>34.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.123</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.653</v>
+        <v>54.65</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.269</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.286</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.422</v>
+        <v>15.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.732</v>
+        <v>16.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.529</v>
+        <v>17.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.829</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.038</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.359</v>
+        <v>21.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.686</v>
+        <v>12.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.858</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.567</v>
+        <v>221.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.947</v>
+        <v>41.95</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.881</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>28.16</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.006</v>
+        <v>15.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.017</v>
+        <v>27.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.261</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.806</v>
+        <v>12.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.519</v>
+        <v>17.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.231</v>
+        <v>49.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.809</v>
+        <v>7.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44861.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.82</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
         <v>17.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.69</v>
       </c>
     </row>
   </sheetData>
